--- a/data/trans_orig/P14C11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E9A08BC-03AC-410D-BA6B-1AE7D0F906A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58519028-E776-4AE6-8C1F-10D47A8DAB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9DAE5169-0D6F-4DB9-BFE2-A5F2D226A670}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2113F72-2580-48E8-B342-3607B1C73968}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>73,51%</t>
   </si>
   <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>78,6%</t>
   </si>
   <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
   </si>
   <si>
     <t>75,96%</t>
   </si>
   <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>21,17%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,22 +137,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>16,82%</t>
+    <t>18,01%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>26,18%</t>
+    <t>22,75%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,16 +164,16 @@
     <t>76,56%</t>
   </si>
   <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
   </si>
   <si>
     <t>90,18%</t>
   </si>
   <si>
-    <t>50,47%</t>
+    <t>49,5%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -182,19 +182,19 @@
     <t>79,69%</t>
   </si>
   <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
   </si>
   <si>
     <t>0%</t>
@@ -206,31 +206,31 @@
     <t>12,8%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>20,95%</t>
+    <t>21,55%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>49,53%</t>
+    <t>50,5%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -263,79 +263,79 @@
     <t>74,37%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>64,24%</t>
   </si>
   <si>
     <t>76,47%</t>
   </si>
   <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>11,37%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -750,7 +750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72748052-7A46-439B-9762-027FE350DDCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50755A4-346D-470C-80E4-E84EBCA0FBAC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1513,7 +1513,7 @@
         <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -1522,13 +1522,13 @@
         <v>82833</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,13 +1543,13 @@
         <v>13032</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>

--- a/data/trans_orig/P14C11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C11-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58519028-E776-4AE6-8C1F-10D47A8DAB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B1D43BC-9206-4660-A908-8C76875320C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2113F72-2580-48E8-B342-3607B1C73968}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D07BDB60-E007-4630-86DF-5AB969962DE4}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
-  <si>
-    <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2015 (Tasa respuesta: 1,57%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
+  <si>
+    <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2016 (Tasa respuesta: 1,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>73,51%</t>
   </si>
   <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>78,6%</t>
   </si>
   <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>75,96%</t>
   </si>
   <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>21,17%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
   </si>
   <si>
     <t>17,7%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,22 +137,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>18,01%</t>
+    <t>16,17%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>22,75%</t>
+    <t>23,26%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,16 +164,16 @@
     <t>76,56%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>90,18%</t>
   </si>
   <si>
-    <t>49,5%</t>
+    <t>50,47%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -182,19 +182,19 @@
     <t>79,69%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
   </si>
   <si>
     <t>16,6%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
   </si>
   <si>
     <t>0%</t>
@@ -206,31 +206,31 @@
     <t>12,8%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>21,55%</t>
+    <t>21,45%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>50,5%</t>
+    <t>49,53%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -263,70 +263,73 @@
     <t>74,37%</t>
   </si>
   <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>64,24%</t>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>76,47%</t>
   </si>
   <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>6,53%</t>
@@ -335,7 +338,7 @@
     <t>2,73%</t>
   </si>
   <si>
-    <t>13,02%</t>
+    <t>12,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -750,7 +753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50755A4-346D-470C-80E4-E84EBCA0FBAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5F2866-4A31-41DD-8791-3217FFE839E5}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1513,7 +1516,7 @@
         <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -1522,13 +1525,13 @@
         <v>82833</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1543,13 +1546,13 @@
         <v>13032</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -1558,13 +1561,13 @@
         <v>5389</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -1573,13 +1576,13 @@
         <v>18421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,13 +1597,13 @@
         <v>3879</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -1609,13 +1612,13 @@
         <v>3194</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -1624,13 +1627,13 @@
         <v>7074</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1686,7 +1689,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
